--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,25 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planing_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Người thực hiện</t>
+  </si>
+  <si>
+    <t>Ungtq</t>
+  </si>
+  <si>
+    <t>Sub task</t>
+  </si>
+  <si>
+    <t>Sub No</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về hệ thống W&amp;O POS - Copy màn hình</t>
+  </si>
+  <si>
+    <t>Màn hình tạo sản phẩm</t>
+  </si>
+  <si>
+    <t>Màn hình chính</t>
+  </si>
+  <si>
+    <t>Màn hình danh sách bàn đang available</t>
+  </si>
+  <si>
+    <t>Màn hình đặt hàng</t>
+  </si>
+  <si>
+    <t>Màn hình giao hàng</t>
+  </si>
+  <si>
+    <t>Màn hình thanh toán</t>
+  </si>
+  <si>
+    <t>Màn hình apply thanh toán</t>
+  </si>
+  <si>
+    <t>Màn hình bán hàng</t>
+  </si>
+  <si>
+    <t>Màn hình hoá đơn</t>
+  </si>
+  <si>
+    <t>Màn hình Sản phẩm</t>
+  </si>
+  <si>
+    <t>Màn hình chăm sóc khách hàng</t>
+  </si>
+  <si>
+    <t>Màn hình Help</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về hệ thống Loyverse POS - Copy màn hình</t>
+  </si>
+  <si>
+    <t>Tổng số giờ</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +101,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -45,18 +123,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -79,44 +294,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -149,9 +364,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -190,153 +405,536 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17">
+        <v>43087</v>
+      </c>
+      <c r="F2" s="17">
+        <v>43088</v>
+      </c>
+      <c r="G2" s="17">
+        <v>43089</v>
+      </c>
+      <c r="H2" s="17">
+        <v>43090</v>
+      </c>
+      <c r="I2" s="17">
+        <v>43091</v>
+      </c>
+      <c r="J2" s="17">
+        <v>43092</v>
+      </c>
+      <c r="K2" s="17">
+        <v>43093</v>
+      </c>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E3:K15)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -220,21 +220,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,16 +266,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,64 +588,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3">
         <v>43087</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="3">
         <v>43088</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="3">
         <v>43089</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="3">
         <v>43090</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="3">
         <v>43091</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="3">
         <v>43092</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="3">
         <v>43093</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2">
@@ -666,8 +666,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -686,8 +686,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -706,8 +706,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -726,8 +726,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -746,8 +746,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -766,8 +766,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2">
         <v>7</v>
       </c>
@@ -786,10 +786,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="1">
@@ -810,8 +810,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1">
         <v>2</v>
       </c>
@@ -830,8 +830,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1">
         <v>3</v>
       </c>
@@ -850,8 +850,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1">
         <v>4</v>
       </c>
@@ -870,8 +870,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1">
         <v>5</v>
       </c>
@@ -890,8 +890,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1">
         <v>6</v>
       </c>
@@ -910,7 +910,7 @@
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E17">

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -573,7 +573,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,9 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>0.1</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -674,7 +676,9 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>0.1</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -694,7 +698,9 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>0.2</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -714,7 +720,9 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>0.3</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -734,7 +742,9 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>0.1</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -754,7 +764,9 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>0.1</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -774,7 +786,9 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>0.1</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -915,7 +929,7 @@
       </c>
       <c r="E17">
         <f>SUM(E3:K15)</f>
-        <v>0</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Planing_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
@@ -573,7 +573,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,9 @@
       <c r="E3" s="1">
         <v>0.1</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -679,7 +681,9 @@
       <c r="E4" s="1">
         <v>0.1</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -701,7 +705,9 @@
       <c r="E5" s="1">
         <v>0.2</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -929,7 +935,7 @@
       </c>
       <c r="E17">
         <f>SUM(E3:K15)</f>
-        <v>0.99999999999999989</v>
+        <v>1.075</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,9 @@
       <c r="F3" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>0.25</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -684,7 +686,9 @@
       <c r="F4" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>0.25</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -708,7 +712,9 @@
       <c r="F5" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>0.25</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -730,7 +736,9 @@
         <v>0.3</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.25</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -752,7 +760,9 @@
         <v>0.1</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.25</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -774,7 +784,9 @@
         <v>0.1</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>0.25</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -796,7 +808,9 @@
         <v>0.1</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.25</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -935,7 +949,7 @@
       </c>
       <c r="E17">
         <f>SUM(E3:K15)</f>
-        <v>1.075</v>
+        <v>2.8250000000000002</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planing_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planing_2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -31,9 +32,6 @@
     <t>Ungtq</t>
   </si>
   <si>
-    <t>Sub task</t>
-  </si>
-  <si>
     <t>Sub No</t>
   </si>
   <si>
@@ -83,12 +81,39 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Màn hình Login</t>
+  </si>
+  <si>
+    <t>Màn hình danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>Màn hình categories</t>
+  </si>
+  <si>
+    <t>Sub task (Master)</t>
+  </si>
+  <si>
+    <t>Sub task (chụp Hardcopy)</t>
+  </si>
+  <si>
+    <t>Màn hình tạo danh sách bàn</t>
+  </si>
+  <si>
+    <t>Màn hình danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>Tìm hiểu Widget Calendar</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về MVC trong Android</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
@@ -572,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
@@ -646,13 +671,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>0.1</v>
@@ -678,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
         <v>0.1</v>
@@ -704,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>0.2</v>
@@ -730,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>0.3</v>
@@ -754,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
         <v>0.1</v>
@@ -778,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <v>0.1</v>
@@ -802,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1">
         <v>0.1</v>
@@ -824,13 +849,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -850,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -870,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -890,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -910,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -930,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -945,14 +970,14 @@
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <f>SUM(E3:K15)</f>
         <v>2.8250000000000002</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -971,4 +996,269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3">
+        <v>43090</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43091</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43092</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43093</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43094</v>
+      </c>
+      <c r="G2" s="3">
+        <v>43095</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43096</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B3:H15)</f>
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Planing_1" sheetId="1" r:id="rId1"/>
     <sheet name="Planing_2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1062,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1247,7 +1249,7 @@
       </c>
       <c r="B17">
         <f>SUM(B3:H15)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planing_1" sheetId="1" r:id="rId1"/>
     <sheet name="Planing_2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planing_3_Analyse" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -108,6 +109,9 @@
   </si>
   <si>
     <t>Tìm hiểu về MVC trong Android</t>
+  </si>
+  <si>
+    <t>Sub task (Design &amp; Analyse)</t>
   </si>
 </sst>
 </file>
@@ -1000,9 +1004,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1263,4 +1270,245 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3">
+        <v>43097</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43098</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43099</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43101</v>
+      </c>
+      <c r="G2" s="3">
+        <v>43102</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43103</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B3:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Planing_1" sheetId="1" r:id="rId1"/>
     <sheet name="Planing_2" sheetId="2" r:id="rId2"/>
     <sheet name="Planing_3_Analyse" sheetId="3" r:id="rId3"/>
+    <sheet name="Planing_4_Analyse" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -118,9 +119,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,9 +247,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -294,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +600,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,70 +609,70 @@
     <col min="2" max="2" width="56.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="5" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="18">
         <v>43087</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="18">
         <v>43088</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="18">
         <v>43089</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="18">
         <v>43090</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="18">
         <v>43091</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="18">
         <v>43092</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="18">
         <v>43093</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2">
@@ -701,8 +699,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -727,8 +725,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -753,8 +751,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -777,8 +775,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -801,8 +799,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -825,8 +823,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2">
         <v>7</v>
       </c>
@@ -849,10 +847,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1">
@@ -873,8 +871,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1">
         <v>2</v>
       </c>
@@ -893,8 +891,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1">
         <v>3</v>
       </c>
@@ -913,8 +911,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1">
         <v>4</v>
       </c>
@@ -933,8 +931,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1">
         <v>5</v>
       </c>
@@ -953,8 +951,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1">
         <v>6</v>
       </c>
@@ -973,7 +971,7 @@
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E17">
@@ -1010,56 +1008,57 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="18">
         <v>43090</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="18">
         <v>43091</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="18">
         <v>43092</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="18">
         <v>43093</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="18">
         <v>43094</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="18">
         <v>43095</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="18">
         <v>43096</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1251,7 +1250,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17">
@@ -1276,68 +1275,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="18">
         <v>43097</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="18">
         <v>43098</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="18">
         <v>43099</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="18">
         <v>43100</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="18">
         <v>43101</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="18">
         <v>43102</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="18">
         <v>43103</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
@@ -1347,12 +1359,24 @@
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>4</v>
@@ -1362,12 +1386,24 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>4</v>
@@ -1377,12 +1413,24 @@
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>4</v>
@@ -1392,12 +1440,24 @@
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>4</v>
@@ -1492,7 +1552,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17">
@@ -1511,4 +1571,247 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="18">
+        <v>43104</v>
+      </c>
+      <c r="C2" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D2" s="18">
+        <v>43106</v>
+      </c>
+      <c r="E2" s="18">
+        <v>43107</v>
+      </c>
+      <c r="F2" s="18">
+        <v>43108</v>
+      </c>
+      <c r="G2" s="18">
+        <v>43109</v>
+      </c>
+      <c r="H2" s="18">
+        <v>43110</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B3:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -248,6 +248,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -289,9 +292,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,64 +615,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="4" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="18">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4">
         <v>43087</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="4">
         <v>43088</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="4">
         <v>43089</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="4">
         <v>43090</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="4">
         <v>43091</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="4">
         <v>43092</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="4">
         <v>43093</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2">
@@ -699,8 +699,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -725,8 +725,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -751,8 +751,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -775,8 +775,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -799,8 +799,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -823,8 +823,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2">
         <v>7</v>
       </c>
@@ -847,10 +847,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1">
@@ -871,8 +871,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1">
         <v>2</v>
       </c>
@@ -891,8 +891,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1">
         <v>3</v>
       </c>
@@ -911,8 +911,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1">
         <v>4</v>
       </c>
@@ -931,8 +931,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1">
         <v>5</v>
       </c>
@@ -951,8 +951,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1">
         <v>6</v>
       </c>
@@ -1019,46 +1019,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="4" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="18">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4">
         <v>43090</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="4">
         <v>43091</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="4">
         <v>43092</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="4">
         <v>43093</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="4">
         <v>43094</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="4">
         <v>43095</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="4">
         <v>43096</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1287,46 +1287,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="4" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="18">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4">
         <v>43097</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="4">
         <v>43098</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="4">
         <v>43099</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="4">
         <v>43100</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="4">
         <v>43101</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="4">
         <v>43102</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="4">
         <v>43103</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="B3" sqref="B3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,53 +1589,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="4" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="18">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4">
         <v>43104</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="4">
         <v>43105</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="4">
         <v>43106</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="4">
         <v>43107</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="4">
         <v>43108</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="4">
         <v>43109</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="4">
         <v>43110</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1649,8 +1653,12 @@
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1664,8 +1672,12 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1679,8 +1691,12 @@
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1694,8 +1710,12 @@
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C7"/>
+      <selection activeCell="F3" sqref="F3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,9 +1640,15 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -1659,9 +1665,15 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
@@ -1678,9 +1690,15 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
@@ -1697,9 +1715,15 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -1716,9 +1740,15 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Planing_1" sheetId="1" r:id="rId1"/>
     <sheet name="Planing_2" sheetId="2" r:id="rId2"/>
     <sheet name="Planing_3_Analyse" sheetId="3" r:id="rId3"/>
     <sheet name="Planing_4_Analyse" sheetId="4" r:id="rId4"/>
+    <sheet name="Planing_5_Analyse" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -1008,7 +1009,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,10 +1274,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1354,9 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1377,7 +1383,9 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1412,9 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1431,7 +1441,9 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1458,7 +1470,9 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1575,10 +1589,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,8 +1666,12 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1674,8 +1695,12 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1699,8 +1724,12 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1724,8 +1753,12 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1749,8 +1782,12 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1864,4 +1901,247 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4">
+        <v>43111</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43112</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43113</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43114</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43115</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43116</v>
+      </c>
+      <c r="H2" s="4">
+        <v>43117</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B3:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Planing_1" sheetId="1" r:id="rId1"/>
@@ -1594,7 +1594,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1905,10 +1905,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H7"/>
+      <selection activeCell="H3" sqref="H3:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,12 +1967,24 @@
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
@@ -1979,12 +1994,24 @@
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>4</v>
@@ -1994,12 +2021,24 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>4</v>
@@ -2009,12 +2048,24 @@
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>4</v>
@@ -2024,12 +2075,24 @@
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>4</v>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Planing_1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Planing_3_Analyse" sheetId="3" r:id="rId3"/>
     <sheet name="Planing_4_Analyse" sheetId="4" r:id="rId4"/>
     <sheet name="Planing_5_Analyse" sheetId="5" r:id="rId5"/>
+    <sheet name="Planing_6_PG" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -1910,7 +1911,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H7"/>
     </sheetView>
   </sheetViews>
@@ -2207,4 +2208,307 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4">
+        <v>43152</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43153</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43154</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43155</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43156</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43157</v>
+      </c>
+      <c r="H2" s="4">
+        <v>43158</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B3:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>